--- a/cam/RP2040-Eins-20231121-JLCPCB-CPL-WSON.xlsx
+++ b/cam/RP2040-Eins-20231121-JLCPCB-CPL-WSON.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-Eins\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95CD5A9-8492-4DE8-ADDD-1F86106E8007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEA22C8-9C1D-425A-AA96-3A38B31E2C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8652" yWindow="1728" windowWidth="12336" windowHeight="18756" xr2:uid="{D2A07367-EB26-4D3C-95B3-13C76D9B899A}"/>
+    <workbookView xWindow="12504" yWindow="2808" windowWidth="12336" windowHeight="18756" xr2:uid="{D2A07367-EB26-4D3C-95B3-13C76D9B899A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="RP2040_Eins_top_pos" localSheetId="0">Sheet1!$A$1:$E$64</definedName>
+    <definedName name="RP2040_Eins_top_pos" localSheetId="0">Sheet1!$A$1:$E$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>C1</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
   </si>
   <si>
     <t>R3</t>
@@ -615,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C0E679-E78B-48F3-874D-D3B284C2D2EB}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,19 +629,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1292,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>166.87799999999999</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>171.70400000000001</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>171.70400000000001</v>
@@ -1369,7 +1366,7 @@
         <v>181.61</v>
       </c>
       <c r="C44">
-        <v>-102.108</v>
+        <v>-103.378</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -1386,7 +1383,7 @@
         <v>181.61</v>
       </c>
       <c r="C45">
-        <v>-103.378</v>
+        <v>-104.648</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -1403,13 +1400,13 @@
         <v>181.61</v>
       </c>
       <c r="C46">
-        <v>-104.648</v>
+        <v>-89.915999999999997</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,10 +1414,10 @@
         <v>43</v>
       </c>
       <c r="B47">
-        <v>181.61</v>
+        <v>132.86750000000001</v>
       </c>
       <c r="C47">
-        <v>-89.915999999999997</v>
+        <v>-111.125</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -1434,16 +1431,16 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <v>132.86750000000001</v>
+        <v>138.55699999999999</v>
       </c>
       <c r="C48">
-        <v>-111.125</v>
+        <v>-105.53700000000001</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,10 +1448,10 @@
         <v>45</v>
       </c>
       <c r="B49">
-        <v>138.55699999999999</v>
+        <v>141.732</v>
       </c>
       <c r="C49">
-        <v>-105.53700000000001</v>
+        <v>-107.188</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
@@ -1468,7 +1465,7 @@
         <v>46</v>
       </c>
       <c r="B50">
-        <v>141.732</v>
+        <v>143.256</v>
       </c>
       <c r="C50">
         <v>-107.188</v>
@@ -1477,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,16 +1482,16 @@
         <v>47</v>
       </c>
       <c r="B51">
-        <v>143.256</v>
+        <v>136.90600000000001</v>
       </c>
       <c r="C51">
-        <v>-107.188</v>
+        <v>-85.597999999999999</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,13 +1502,13 @@
         <v>136.90600000000001</v>
       </c>
       <c r="C52">
-        <v>-85.597999999999999</v>
+        <v>-92.2</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,16 +1516,16 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <v>136.90600000000001</v>
+        <v>130.30199999999999</v>
       </c>
       <c r="C53">
-        <v>-92.2</v>
+        <v>-82.55</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1536,16 +1533,16 @@
         <v>50</v>
       </c>
       <c r="B54">
-        <v>130.30199999999999</v>
+        <v>175.26</v>
       </c>
       <c r="C54">
-        <v>-82.55</v>
+        <v>-107.95</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1553,7 +1550,7 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <v>175.26</v>
+        <v>176.53</v>
       </c>
       <c r="C55">
         <v>-107.95</v>
@@ -1570,7 +1567,7 @@
         <v>52</v>
       </c>
       <c r="B56">
-        <v>176.53</v>
+        <v>177.8</v>
       </c>
       <c r="C56">
         <v>-107.95</v>
@@ -1587,16 +1584,16 @@
         <v>53</v>
       </c>
       <c r="B57">
-        <v>177.8</v>
+        <v>133.35</v>
       </c>
       <c r="C57">
-        <v>-107.95</v>
+        <v>-105.41</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1607,13 +1604,13 @@
         <v>133.35</v>
       </c>
       <c r="C58">
-        <v>-105.41</v>
+        <v>-77.47</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,16 +1618,16 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>133.35</v>
+        <v>168.91</v>
       </c>
       <c r="C59">
-        <v>-77.47</v>
+        <v>-95.25</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,16 +1635,16 @@
         <v>56</v>
       </c>
       <c r="B60">
-        <v>168.91</v>
+        <v>146.489</v>
       </c>
       <c r="C60">
-        <v>-95.25</v>
+        <v>-112.047</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1655,16 +1652,16 @@
         <v>57</v>
       </c>
       <c r="B61">
-        <v>146.489</v>
+        <v>156.21</v>
       </c>
       <c r="C61">
-        <v>-112.047</v>
+        <v>-101.6</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1672,16 +1669,16 @@
         <v>58</v>
       </c>
       <c r="B62">
-        <v>156.21</v>
+        <v>157.66499999999999</v>
       </c>
       <c r="C62">
-        <v>-101.6</v>
+        <v>-112.047</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,32 +1686,15 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <v>157.66499999999999</v>
+        <v>181.61</v>
       </c>
       <c r="C63">
-        <v>-112.047</v>
+        <v>-96.52</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64">
-        <v>181.61</v>
-      </c>
-      <c r="C64">
-        <v>-96.52</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64">
         <v>-90</v>
       </c>
     </row>
